--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jimmy\Documents\Fac\3A\BD\Projet\MaisonEconome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20732A-03DE-4434-A446-01876C68823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8371E446-31FF-42B2-A9F8-96C37D657798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -216,12 +216,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,8 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +569,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,354 +594,354 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jimmy\Documents\Fac\3A\BD\Projet\MaisonEconome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\MaisonEconome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8371E446-31FF-42B2-A9F8-96C37D657798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F78948-CBF3-417D-A678-F3AAEE7820C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
+    <workbookView xWindow="12600" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Nom de l'attribut</t>
   </si>
@@ -122,12 +122,6 @@
     <t>immeubleAdresse</t>
   </si>
   <si>
-    <t>appartementType</t>
-  </si>
-  <si>
-    <t>appartementSecurity</t>
-  </si>
-  <si>
     <t>pieceId</t>
   </si>
   <si>
@@ -201,6 +195,18 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>appartementTypeId</t>
+  </si>
+  <si>
+    <t>appartementTypeLibelle</t>
+  </si>
+  <si>
+    <t>appartementSecurityId</t>
+  </si>
+  <si>
+    <t>appartementSecurityLibelle</t>
   </si>
 </sst>
 </file>
@@ -248,10 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8C8F08-4D7E-49F5-817E-074A5964A824}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -599,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -607,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -615,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -631,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -639,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -647,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -655,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -671,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -679,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -687,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -700,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -708,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -716,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -724,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -732,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -740,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -748,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -756,7 +763,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -764,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -772,89 +779,77 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -862,87 +857,111 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\MaisonEconome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F78948-CBF3-417D-A678-F3AAEE7820C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1951074-BC8A-4241-877C-708C809BCECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
+    <workbookView xWindow="5760" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Nom de l'attribut</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>appartementSecurityLibelle</t>
+  </si>
+  <si>
+    <t>adresseId</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8C8F08-4D7E-49F5-817E-074A5964A824}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +785,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>53</v>
@@ -793,7 +795,6 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>55</v>
@@ -940,17 +941,15 @@
         <v>52</v>
       </c>
     </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>52</v>
@@ -958,9 +957,17 @@
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\MaisonEconome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1951074-BC8A-4241-877C-708C809BCECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7436B-ABA2-48F4-B9C2-31208F1EFCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
+    <workbookView xWindow="1872" yWindow="2532" windowWidth="17280" windowHeight="8964" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Nom de l'attribut</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>adresseId</t>
+  </si>
+  <si>
+    <t>immeubleIsolation</t>
+  </si>
+  <si>
+    <t>immeubleEvalBase</t>
   </si>
 </sst>
 </file>
@@ -257,11 +263,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8C8F08-4D7E-49F5-817E-074A5964A824}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,61 +758,73 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -815,7 +832,7 @@
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>52</v>
@@ -823,7 +840,7 @@
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -831,7 +848,7 @@
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>52</v>
@@ -839,7 +856,7 @@
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>45</v>
@@ -847,47 +864,47 @@
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>52</v>
@@ -895,7 +912,7 @@
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>45</v>
@@ -903,71 +920,86 @@
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>52</v>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\MaisonEconome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7436B-ABA2-48F4-B9C2-31208F1EFCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5BC85-0440-4AAA-8EC1-C699FE91E448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1872" yWindow="2532" windowWidth="17280" windowHeight="8964" xr2:uid="{F2A7CC65-7F92-4F6E-98C2-08AAE2897E96}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Nom de l'attribut</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>immeubleEvalBase</t>
+  </si>
+  <si>
+    <t>immeubleNom</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8C8F08-4D7E-49F5-817E-074A5964A824}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,11 +644,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -776,119 +779,119 @@
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>45</v>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>45</v>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>52</v>
@@ -896,7 +899,7 @@
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>52</v>
@@ -904,92 +907,92 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>45</v>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>45</v>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>45</v>
+      <c r="C58" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
+      <c r="C62" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>52</v>
@@ -997,9 +1000,17 @@
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>52</v>
       </c>
     </row>
